--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl21b-Ccr10.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl21b-Ccr10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Ccl21b</t>
+  </si>
+  <si>
+    <t>Ccr10</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Ccl21b</t>
-  </si>
-  <si>
-    <t>Ccr10</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.03355466666666667</v>
+        <v>0.08844</v>
       </c>
       <c r="H2">
-        <v>0.100664</v>
+        <v>0.26532</v>
       </c>
       <c r="I2">
-        <v>0.1494171833323191</v>
+        <v>0.939488472392877</v>
       </c>
       <c r="J2">
-        <v>0.1494171833323191</v>
+        <v>0.9394884723928769</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2056166666666667</v>
+        <v>0.05145833333333334</v>
       </c>
       <c r="N2">
-        <v>0.61685</v>
+        <v>0.154375</v>
       </c>
       <c r="O2">
-        <v>0.3876180888860402</v>
+        <v>0.2409462730781657</v>
       </c>
       <c r="P2">
-        <v>0.3876180888860402</v>
+        <v>0.2409462730781657</v>
       </c>
       <c r="Q2">
-        <v>0.006899398711111112</v>
+        <v>0.004550975000000001</v>
       </c>
       <c r="R2">
-        <v>0.0620945884</v>
+        <v>0.040958775</v>
       </c>
       <c r="S2">
-        <v>0.05791680305000862</v>
+        <v>0.2263662460229629</v>
       </c>
       <c r="T2">
-        <v>0.05791680305000862</v>
+        <v>0.2263662460229629</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.03355466666666667</v>
+        <v>0.08844</v>
       </c>
       <c r="H3">
-        <v>0.100664</v>
+        <v>0.26532</v>
       </c>
       <c r="I3">
-        <v>0.1494171833323191</v>
+        <v>0.939488472392877</v>
       </c>
       <c r="J3">
-        <v>0.1494171833323191</v>
+        <v>0.9394884723928769</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +620,22 @@
         <v>0.418253</v>
       </c>
       <c r="O3">
-        <v>0.2628230988584793</v>
+        <v>0.6528032489312521</v>
       </c>
       <c r="P3">
-        <v>0.2628230988584793</v>
+        <v>0.6528032489312521</v>
       </c>
       <c r="Q3">
-        <v>0.004678113332444445</v>
+        <v>0.01233009844</v>
       </c>
       <c r="R3">
-        <v>0.042103019992</v>
+        <v>0.11097088596</v>
       </c>
       <c r="S3">
-        <v>0.03927028714610562</v>
+        <v>0.6133011271115291</v>
       </c>
       <c r="T3">
-        <v>0.03927028714610562</v>
+        <v>0.613301127111529</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.03355466666666667</v>
+        <v>0.08844</v>
       </c>
       <c r="H4">
-        <v>0.100664</v>
+        <v>0.26532</v>
       </c>
       <c r="I4">
-        <v>0.1494171833323191</v>
+        <v>0.939488472392877</v>
       </c>
       <c r="J4">
-        <v>0.1494171833323191</v>
+        <v>0.9394884723928769</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,28 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1854276666666667</v>
+        <v>0.02269166666666667</v>
       </c>
       <c r="N4">
-        <v>0.556283</v>
+        <v>0.068075</v>
       </c>
       <c r="O4">
-        <v>0.3495588122554804</v>
+        <v>0.1062504779905822</v>
       </c>
       <c r="P4">
-        <v>0.3495588122554804</v>
+        <v>0.1062504779905822</v>
       </c>
       <c r="Q4">
-        <v>0.006221963545777778</v>
+        <v>0.002006851</v>
       </c>
       <c r="R4">
-        <v>0.055997671912</v>
+        <v>0.018061659</v>
       </c>
       <c r="S4">
-        <v>0.05223009313620482</v>
+        <v>0.0998210992583851</v>
       </c>
       <c r="T4">
-        <v>0.05223009313620482</v>
+        <v>0.09982109925838507</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +705,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.08844</v>
+        <v>0.005696333333333334</v>
       </c>
       <c r="H5">
-        <v>0.26532</v>
+        <v>0.017089</v>
       </c>
       <c r="I5">
-        <v>0.3938187145526791</v>
+        <v>0.06051152760712301</v>
       </c>
       <c r="J5">
-        <v>0.3938187145526791</v>
+        <v>0.060511527607123</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.2056166666666667</v>
+        <v>0.05145833333333334</v>
       </c>
       <c r="N5">
-        <v>0.61685</v>
+        <v>0.154375</v>
       </c>
       <c r="O5">
-        <v>0.3876180888860402</v>
+        <v>0.2409462730781657</v>
       </c>
       <c r="P5">
-        <v>0.3876180888860402</v>
+        <v>0.2409462730781657</v>
       </c>
       <c r="Q5">
-        <v>0.018184738</v>
+        <v>0.0002931238194444445</v>
       </c>
       <c r="R5">
-        <v>0.163662642</v>
+        <v>0.002638114375</v>
       </c>
       <c r="S5">
-        <v>0.1526512575024665</v>
+        <v>0.01458002705520282</v>
       </c>
       <c r="T5">
-        <v>0.1526512575024665</v>
+        <v>0.01458002705520282</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +767,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.08844</v>
+        <v>0.005696333333333334</v>
       </c>
       <c r="H6">
-        <v>0.26532</v>
+        <v>0.017089</v>
       </c>
       <c r="I6">
-        <v>0.3938187145526791</v>
+        <v>0.06051152760712301</v>
       </c>
       <c r="J6">
-        <v>0.3938187145526791</v>
+        <v>0.060511527607123</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,22 +806,22 @@
         <v>0.418253</v>
       </c>
       <c r="O6">
-        <v>0.2628230988584793</v>
+        <v>0.6528032489312521</v>
       </c>
       <c r="P6">
-        <v>0.2628230988584793</v>
+        <v>0.6528032489312521</v>
       </c>
       <c r="Q6">
-        <v>0.01233009844</v>
+        <v>0.0007941695018888889</v>
       </c>
       <c r="R6">
-        <v>0.11097088596</v>
+        <v>0.007147525517</v>
       </c>
       <c r="S6">
-        <v>0.103504654947198</v>
+        <v>0.03950212181972305</v>
       </c>
       <c r="T6">
-        <v>0.103504654947198</v>
+        <v>0.03950212181972305</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +829,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.08844</v>
+        <v>0.005696333333333334</v>
       </c>
       <c r="H7">
-        <v>0.26532</v>
+        <v>0.017089</v>
       </c>
       <c r="I7">
-        <v>0.3938187145526791</v>
+        <v>0.06051152760712301</v>
       </c>
       <c r="J7">
-        <v>0.3938187145526791</v>
+        <v>0.060511527607123</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -865,400 +862,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.1854276666666667</v>
+        <v>0.02269166666666667</v>
       </c>
       <c r="N7">
-        <v>0.556283</v>
+        <v>0.068075</v>
       </c>
       <c r="O7">
-        <v>0.3495588122554804</v>
+        <v>0.1062504779905822</v>
       </c>
       <c r="P7">
-        <v>0.3495588122554804</v>
+        <v>0.1062504779905822</v>
       </c>
       <c r="Q7">
-        <v>0.01639922284</v>
+        <v>0.0001292592972222222</v>
       </c>
       <c r="R7">
-        <v>0.14759300556</v>
+        <v>0.001163333675</v>
       </c>
       <c r="S7">
-        <v>0.1376628021030146</v>
+        <v>0.006429378732197131</v>
       </c>
       <c r="T7">
-        <v>0.1376628021030146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.063403</v>
-      </c>
-      <c r="H8">
-        <v>0.190209</v>
-      </c>
-      <c r="I8">
-        <v>0.2823302573358606</v>
-      </c>
-      <c r="J8">
-        <v>0.2823302573358607</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.2056166666666667</v>
-      </c>
-      <c r="N8">
-        <v>0.61685</v>
-      </c>
-      <c r="O8">
-        <v>0.3876180888860402</v>
-      </c>
-      <c r="P8">
-        <v>0.3876180888860402</v>
-      </c>
-      <c r="Q8">
-        <v>0.01303671351666667</v>
-      </c>
-      <c r="R8">
-        <v>0.11733042165</v>
-      </c>
-      <c r="S8">
-        <v>0.1094363147832302</v>
-      </c>
-      <c r="T8">
-        <v>0.1094363147832303</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.063403</v>
-      </c>
-      <c r="H9">
-        <v>0.190209</v>
-      </c>
-      <c r="I9">
-        <v>0.2823302573358606</v>
-      </c>
-      <c r="J9">
-        <v>0.2823302573358607</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.1394176666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.418253</v>
-      </c>
-      <c r="O9">
-        <v>0.2628230988584793</v>
-      </c>
-      <c r="P9">
-        <v>0.2628230988584793</v>
-      </c>
-      <c r="Q9">
-        <v>0.008839498319666666</v>
-      </c>
-      <c r="R9">
-        <v>0.07955548487700001</v>
-      </c>
-      <c r="S9">
-        <v>0.0742029131345228</v>
-      </c>
-      <c r="T9">
-        <v>0.07420291313452282</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.063403</v>
-      </c>
-      <c r="H10">
-        <v>0.190209</v>
-      </c>
-      <c r="I10">
-        <v>0.2823302573358606</v>
-      </c>
-      <c r="J10">
-        <v>0.2823302573358607</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.1854276666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.556283</v>
-      </c>
-      <c r="O10">
-        <v>0.3495588122554804</v>
-      </c>
-      <c r="P10">
-        <v>0.3495588122554804</v>
-      </c>
-      <c r="Q10">
-        <v>0.01175667034966667</v>
-      </c>
-      <c r="R10">
-        <v>0.105810033147</v>
-      </c>
-      <c r="S10">
-        <v>0.09869102941810758</v>
-      </c>
-      <c r="T10">
-        <v>0.0986910294181076</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.03917266666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.117518</v>
-      </c>
-      <c r="I11">
-        <v>0.1744338447791412</v>
-      </c>
-      <c r="J11">
-        <v>0.1744338447791412</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.2056166666666667</v>
-      </c>
-      <c r="N11">
-        <v>0.61685</v>
-      </c>
-      <c r="O11">
-        <v>0.3876180888860402</v>
-      </c>
-      <c r="P11">
-        <v>0.3876180888860402</v>
-      </c>
-      <c r="Q11">
-        <v>0.008054553144444445</v>
-      </c>
-      <c r="R11">
-        <v>0.07249097830000001</v>
-      </c>
-      <c r="S11">
-        <v>0.06761371355033489</v>
-      </c>
-      <c r="T11">
-        <v>0.06761371355033491</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.03917266666666667</v>
-      </c>
-      <c r="H12">
-        <v>0.117518</v>
-      </c>
-      <c r="I12">
-        <v>0.1744338447791412</v>
-      </c>
-      <c r="J12">
-        <v>0.1744338447791412</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.1394176666666667</v>
-      </c>
-      <c r="N12">
-        <v>0.418253</v>
-      </c>
-      <c r="O12">
-        <v>0.2628230988584793</v>
-      </c>
-      <c r="P12">
-        <v>0.2628230988584793</v>
-      </c>
-      <c r="Q12">
-        <v>0.005461361783777778</v>
-      </c>
-      <c r="R12">
-        <v>0.049152256054</v>
-      </c>
-      <c r="S12">
-        <v>0.04584524363065286</v>
-      </c>
-      <c r="T12">
-        <v>0.04584524363065287</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.03917266666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.117518</v>
-      </c>
-      <c r="I13">
-        <v>0.1744338447791412</v>
-      </c>
-      <c r="J13">
-        <v>0.1744338447791412</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.1854276666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.556283</v>
-      </c>
-      <c r="O13">
-        <v>0.3495588122554804</v>
-      </c>
-      <c r="P13">
-        <v>0.3495588122554804</v>
-      </c>
-      <c r="Q13">
-        <v>0.007263696177111111</v>
-      </c>
-      <c r="R13">
-        <v>0.065373265594</v>
-      </c>
-      <c r="S13">
-        <v>0.06097488759815343</v>
-      </c>
-      <c r="T13">
-        <v>0.06097488759815344</v>
+        <v>0.00642937873219713</v>
       </c>
     </row>
   </sheetData>
